--- a/imigrantes.xlsx
+++ b/imigrantes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\TCC IDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E09D59-A014-47B7-A14C-CACB8292C8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37A0813-92DE-4B48-95F1-109C9AEE5C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="3600" windowWidth="16635" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,7 +361,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
